--- a/data/קופונים שלא מומשו.xlsx
+++ b/data/קופונים שלא מומשו.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70403802-BFB6-4880-BACA-554DC372472D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F753E2-AD30-468D-BFA8-780767432B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7510" xr2:uid="{F4FE600D-48ED-4B5C-99FC-91ED52828FB7}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7510" xr2:uid="{F4FE600D-48ED-4B5C-99FC-91ED52828FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">קוד קופון </t>
-  </si>
-  <si>
-    <t>s22dsssssדsasda</t>
   </si>
 </sst>
 </file>
@@ -433,8 +430,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>12367</v>
       </c>
     </row>
   </sheetData>
